--- a/resources/Members.xlsx
+++ b/resources/Members.xlsx
@@ -3,78 +3,100 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\libraryhhs\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3484F4BB-3662-4EF7-9106-9EEA022EB11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBBE597-5A29-4482-8267-20996C1C4F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4E446A2F-3CF8-4636-BFCE-3439258DFFBB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Members" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>12345678</t>
-  </si>
-  <si>
-    <t>Chris</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phonenumber</t>
+  </si>
+  <si>
+    <t>Borrowed book(s)</t>
+  </si>
+  <si>
+    <t>Christopher</t>
   </si>
   <si>
     <t>Yeung</t>
   </si>
   <si>
-    <t>chris@gmail.com</t>
-  </si>
-  <si>
-    <t>0612345678</t>
-  </si>
-  <si>
-    <t>45678901</t>
-  </si>
-  <si>
-    <t>Mike</t>
-  </si>
-  <si>
-    <t>Jacobs</t>
-  </si>
-  <si>
-    <t>mikejacobs@yahoo.com</t>
-  </si>
-  <si>
-    <t>5972345678</t>
-  </si>
-  <si>
-    <t>UserID</t>
-  </si>
-  <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>Lastname</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phonenumber</t>
+    <t>12345678@gmail.com</t>
+  </si>
+  <si>
+    <t>The Daily Stoic</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>The Daily Stoic,1984</t>
+  </si>
+  <si>
+    <t>,1984</t>
+  </si>
+  <si>
+    <t>1984</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,13 +119,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -415,67 +440,347 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00CA1DD-83D4-4E24-A179-F9689E3BB369}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.85546875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="59.0"/>
+    <col min="4" max="4" customWidth="true" width="14.7109375"/>
+    <col min="5" max="5" customWidth="true" width="27.28515625"/>
+    <col min="6" max="6" customWidth="true" width="21.140625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.28515625"/>
+    <col min="11" max="11" customWidth="true" width="10.7109375"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="0">
+        <v>12345678</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0">
+        <v>612345678</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{5F0771C7-A992-4062-BFB5-0D82A1CF7C58}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CD244523D227F64AB481912B64883DD3" ma:contentTypeVersion="12" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="424b98fc32cbae2a48011eaab9aa638e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a65a20cd-6e29-4b45-967a-de51639c66f7" xmlns:ns4="a1ea20cc-f79b-4e27-af1f-5d2dcf2a42d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0ecf271b8682169a5bf32f47bd737db1" ns3:_="" ns4:_="">
+    <xsd:import namespace="a65a20cd-6e29-4b45-967a-de51639c66f7"/>
+    <xsd:import namespace="a1ea20cc-f79b-4e27-af1f-5d2dcf2a42d6"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a65a20cd-6e29-4b45-967a-de51639c66f7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="13" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a1ea20cc-f79b-4e27-af1f-5d2dcf2a42d6" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Gedeeld met" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Gedeeld met details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Hint-hash delen" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhoudstype"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a65a20cd-6e29-4b45-967a-de51639c66f7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCAD4731-7740-4A64-A5E9-77495200FC66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a65a20cd-6e29-4b45-967a-de51639c66f7"/>
+    <ds:schemaRef ds:uri="a1ea20cc-f79b-4e27-af1f-5d2dcf2a42d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E561841F-00D5-415B-9862-29405F06CF9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C6AE2A2-1DEB-4510-8BFB-2632586C560A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a65a20cd-6e29-4b45-967a-de51639c66f7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="a1ea20cc-f79b-4e27-af1f-5d2dcf2a42d6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/resources/Members.xlsx
+++ b/resources/Members.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>UserID</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>1984</t>
+  </si>
+  <si>
+    <t>1984,The Daily Stoic</t>
   </si>
 </sst>
 </file>
@@ -499,7 +502,7 @@
         <v>612345678</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Members.xlsx
+++ b/resources/Members.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\libraryhhs\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBBE597-5A29-4482-8267-20996C1C4F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7D5E7B-42F1-461B-B133-587CE187C1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4E446A2F-3CF8-4636-BFCE-3439258DFFBB}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11835" xr2:uid="{4E446A2F-3CF8-4636-BFCE-3439258DFFBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>UserID</t>
   </si>
@@ -63,31 +63,12 @@
   </si>
   <si>
     <t>12345678@gmail.com</t>
-  </si>
-  <si>
-    <t>The Daily Stoic</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>The Daily Stoic,1984</t>
-  </si>
-  <si>
-    <t>,1984</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>1984,The Daily Stoic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,57 +433,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.140625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.85546875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="59.0"/>
-    <col min="4" max="4" customWidth="true" width="14.7109375"/>
-    <col min="5" max="5" customWidth="true" width="27.28515625"/>
-    <col min="6" max="6" customWidth="true" width="21.140625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="17.5703125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.28515625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="9.28515625"/>
-    <col min="11" max="11" customWidth="true" width="10.7109375"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="0">
+      <c r="A2">
         <v>12345678</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>612345678</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -515,6 +493,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CD244523D227F64AB481912B64883DD3" ma:contentTypeVersion="12" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="424b98fc32cbae2a48011eaab9aa638e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a65a20cd-6e29-4b45-967a-de51639c66f7" xmlns:ns4="a1ea20cc-f79b-4e27-af1f-5d2dcf2a42d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0ecf271b8682169a5bf32f47bd737db1" ns3:_="" ns4:_="">
     <xsd:import namespace="a65a20cd-6e29-4b45-967a-de51639c66f7"/>
@@ -727,15 +714,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -745,6 +723,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E561841F-00D5-415B-9862-29405F06CF9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCAD4731-7740-4A64-A5E9-77495200FC66}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -763,14 +749,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E561841F-00D5-415B-9862-29405F06CF9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C6AE2A2-1DEB-4510-8BFB-2632586C560A}">
   <ds:schemaRefs>
